--- a/data/culture-media-essay.xlsx
+++ b/data/culture-media-essay.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">observation</t>
   </si>
   <si>
-    <t xml:space="preserve">owner</t>
+    <t xml:space="preserve">essay</t>
   </si>
   <si>
     <t xml:space="preserve">species</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Jennifer</t>
   </si>
   <si>
-    <t xml:space="preserve">P. sp. nov.</t>
+    <t xml:space="preserve">P. theobromicola sp. nov.</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
@@ -220,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -228,13 +228,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -275,12 +275,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Value" xfId="21"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
     <cellStyle name="Pivot Table Field" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -297,10 +297,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.15"/>
@@ -312,7 +312,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="12" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -347,11 +347,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -384,7 +384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -417,7 +417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -450,7 +450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -483,7 +483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -516,7 +516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -618,7 +618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -684,7 +684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -849,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -915,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -948,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -981,7 +981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>185</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>186</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>187</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>188</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>189</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>190</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>191</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>192</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>193</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>194</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>195</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>196</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>225</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>226</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>227</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>228</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>229</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>230</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>231</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>232</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>233</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>234</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>235</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>236</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>237</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>238</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>239</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>240</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>241</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>242</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>243</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>244</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>245</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>246</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>247</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>248</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>261</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>262</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>263</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <v>264</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>265</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>266</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>267</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>268</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>269</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>270</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>271</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>272</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <v>297</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>298</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <v>299</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <v>300</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>301</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>302</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>303</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>304</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>305</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>306</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>307</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>308</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <v>337</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <v>338</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <v>339</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <v>340</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <v>341</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <v>342</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <v>343</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <v>344</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <v>345</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <v>346</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <v>347</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <v>348</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <v>349</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <v>350</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <v>351</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <v>352</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <v>353</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <v>354</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <v>355</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>356</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>357</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>358</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>359</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>360</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <v>373</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <v>374</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
         <v>375</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <v>376</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <v>377</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
         <v>378</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <v>379</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <v>380</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
         <v>381</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
         <v>382</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
         <v>383</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
         <v>384</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
         <v>409</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
         <v>410</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <v>411</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
         <v>412</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
         <v>413</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <v>414</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <v>415</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <v>416</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
         <v>417</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <v>418</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
         <v>419</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <v>420</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
         <v>449</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
         <v>450</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
         <v>451</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
         <v>452</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
         <v>453</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
         <v>454</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
         <v>455</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
         <v>456</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
         <v>457</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
         <v>458</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
         <v>459</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
         <v>460</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
         <v>461</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
         <v>462</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
         <v>463</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
         <v>464</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
         <v>465</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
         <v>466</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
         <v>467</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
         <v>468</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
         <v>469</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
         <v>470</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
         <v>471</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
         <v>472</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
         <v>485</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
         <v>486</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
         <v>487</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
         <v>488</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
         <v>489</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
         <v>490</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="n">
         <v>491</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="n">
         <v>492</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="n">
         <v>493</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="n">
         <v>494</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="n">
         <v>495</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="n">
         <v>496</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
         <v>521</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
         <v>522</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
         <v>523</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="n">
         <v>524</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="n">
         <v>525</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="n">
         <v>526</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
         <v>527</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
         <v>528</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
         <v>529</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="n">
         <v>530</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
         <v>531</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
         <v>532</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
         <v>561</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
         <v>562</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
         <v>563</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
         <v>564</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
         <v>565</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="n">
         <v>566</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="n">
         <v>567</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
         <v>568</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
         <v>569</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="n">
         <v>570</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="n">
         <v>571</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
         <v>572</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
         <v>573</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
         <v>574</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="n">
         <v>575</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="n">
         <v>576</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="n">
         <v>577</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
         <v>578</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
         <v>579</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="n">
         <v>580</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="n">
         <v>581</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
         <v>582</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
         <v>583</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
         <v>584</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="n">
         <v>597</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="n">
         <v>598</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="n">
         <v>599</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="n">
         <v>600</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
         <v>601</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="n">
         <v>602</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="n">
         <v>603</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="n">
         <v>604</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="n">
         <v>605</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="n">
         <v>606</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="n">
         <v>607</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="n">
         <v>608</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="n">
         <v>633</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="n">
         <v>634</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="n">
         <v>635</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="n">
         <v>636</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="n">
         <v>637</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="n">
         <v>638</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="n">
         <v>639</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="n">
         <v>640</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="n">
         <v>641</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="n">
         <v>642</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="n">
         <v>643</v>
       </c>
@@ -21584,7 +21584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="n">
         <v>644</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="n">
         <v>673</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="n">
         <v>674</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="n">
         <v>675</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="n">
         <v>676</v>
       </c>
@@ -22673,7 +22673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
         <v>677</v>
       </c>
@@ -22706,7 +22706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
         <v>678</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="n">
         <v>679</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="n">
         <v>680</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
         <v>681</v>
       </c>
@@ -22839,7 +22839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="n">
         <v>682</v>
       </c>
@@ -22872,7 +22872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="n">
         <v>683</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="n">
         <v>684</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="n">
         <v>685</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="n">
         <v>686</v>
       </c>
@@ -23004,7 +23004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="n">
         <v>687</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="n">
         <v>688</v>
       </c>
@@ -23070,7 +23070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="n">
         <v>689</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="n">
         <v>690</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="n">
         <v>691</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="n">
         <v>692</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="n">
         <v>693</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="n">
         <v>694</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="n">
         <v>695</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="n">
         <v>696</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="n">
         <v>709</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="n">
         <v>710</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="n">
         <v>711</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="n">
         <v>712</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="n">
         <v>713</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="n">
         <v>714</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="n">
         <v>715</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="n">
         <v>716</v>
       </c>
@@ -23994,7 +23994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="n">
         <v>717</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="n">
         <v>718</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="n">
         <v>719</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="n">
         <v>720</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="n">
         <v>745</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="n">
         <v>746</v>
       </c>
@@ -24984,7 +24984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="n">
         <v>747</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="n">
         <v>748</v>
       </c>
@@ -25050,7 +25050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="n">
         <v>749</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="n">
         <v>750</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="n">
         <v>751</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="n">
         <v>752</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="n">
         <v>753</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="n">
         <v>754</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="n">
         <v>755</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="n">
         <v>756</v>
       </c>
@@ -26238,7 +26238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="n">
         <v>785</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="n">
         <v>786</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="n">
         <v>787</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="n">
         <v>788</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="n">
         <v>789</v>
       </c>
@@ -26403,7 +26403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="n">
         <v>790</v>
       </c>
@@ -26436,7 +26436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="n">
         <v>791</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="n">
         <v>792</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="n">
         <v>793</v>
       </c>
@@ -26535,7 +26535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="n">
         <v>794</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="n">
         <v>795</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="1" t="n">
         <v>796</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="n">
         <v>797</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="n">
         <v>798</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="n">
         <v>799</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="n">
         <v>800</v>
       </c>
@@ -26766,7 +26766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="1" t="n">
         <v>801</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="1" t="n">
         <v>802</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="1" t="n">
         <v>803</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="1" t="n">
         <v>804</v>
       </c>
@@ -26898,7 +26898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="n">
         <v>805</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="n">
         <v>806</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="n">
         <v>807</v>
       </c>
@@ -26997,7 +26997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="n">
         <v>808</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="n">
         <v>809</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="n">
         <v>810</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="n">
         <v>811</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="n">
         <v>812</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="n">
         <v>813</v>
       </c>
@@ -27195,7 +27195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="n">
         <v>814</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="n">
         <v>815</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="n">
         <v>816</v>
       </c>
@@ -27822,7 +27822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="n">
         <v>833</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="n">
         <v>834</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="n">
         <v>835</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="n">
         <v>836</v>
       </c>
@@ -27954,7 +27954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="n">
         <v>837</v>
       </c>
@@ -27987,7 +27987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="n">
         <v>838</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="n">
         <v>839</v>
       </c>
@@ -28053,7 +28053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="n">
         <v>840</v>
       </c>
@@ -28086,7 +28086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="n">
         <v>841</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="n">
         <v>842</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="n">
         <v>843</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="n">
         <v>844</v>
       </c>
@@ -28218,7 +28218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="n">
         <v>845</v>
       </c>
@@ -28251,7 +28251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="n">
         <v>846</v>
       </c>
@@ -28284,7 +28284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="n">
         <v>847</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="n">
         <v>848</v>
       </c>
@@ -29406,7 +29406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="n">
         <v>881</v>
       </c>
@@ -29439,7 +29439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="n">
         <v>882</v>
       </c>
@@ -29472,7 +29472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="n">
         <v>883</v>
       </c>
@@ -29505,7 +29505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="n">
         <v>884</v>
       </c>
@@ -29538,7 +29538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="n">
         <v>885</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="n">
         <v>886</v>
       </c>
@@ -29604,7 +29604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="n">
         <v>887</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="n">
         <v>888</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="n">
         <v>889</v>
       </c>
@@ -29703,7 +29703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="n">
         <v>890</v>
       </c>
@@ -29736,7 +29736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="n">
         <v>891</v>
       </c>
@@ -29769,7 +29769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="n">
         <v>892</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="n">
         <v>893</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="n">
         <v>894</v>
       </c>
@@ -29868,7 +29868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="n">
         <v>895</v>
       </c>
@@ -29901,7 +29901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="n">
         <v>896</v>
       </c>
@@ -29934,7 +29934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="n">
         <v>897</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="n">
         <v>898</v>
       </c>
@@ -30000,7 +30000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="n">
         <v>899</v>
       </c>
@@ -30033,7 +30033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="n">
         <v>900</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="n">
         <v>901</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="n">
         <v>902</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="n">
         <v>903</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="n">
         <v>904</v>
       </c>
@@ -30198,7 +30198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="n">
         <v>905</v>
       </c>
@@ -30231,7 +30231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="n">
         <v>906</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="n">
         <v>907</v>
       </c>
@@ -30297,7 +30297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="n">
         <v>908</v>
       </c>
@@ -30330,7 +30330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="n">
         <v>909</v>
       </c>
@@ -30363,7 +30363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="n">
         <v>910</v>
       </c>
@@ -30396,7 +30396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="n">
         <v>911</v>
       </c>
@@ -30990,7 +30990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="n">
         <v>929</v>
       </c>
@@ -31023,7 +31023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="n">
         <v>930</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="n">
         <v>931</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="n">
         <v>932</v>
       </c>
@@ -31122,7 +31122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="n">
         <v>933</v>
       </c>
@@ -31155,7 +31155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="n">
         <v>934</v>
       </c>
@@ -31188,7 +31188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="n">
         <v>935</v>
       </c>
@@ -31221,7 +31221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="n">
         <v>936</v>
       </c>
@@ -31254,7 +31254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="n">
         <v>937</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="n">
         <v>938</v>
       </c>
@@ -31320,7 +31320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="n">
         <v>939</v>
       </c>
@@ -31353,7 +31353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="n">
         <v>940</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="n">
         <v>941</v>
       </c>
@@ -31419,7 +31419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="n">
         <v>942</v>
       </c>
@@ -31452,7 +31452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="n">
         <v>943</v>
       </c>
@@ -31485,7 +31485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="n">
         <v>944</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="n">
         <v>945</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="n">
         <v>946</v>
       </c>
@@ -31584,7 +31584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="n">
         <v>947</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="n">
         <v>948</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="n">
         <v>949</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="n">
         <v>950</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="n">
         <v>951</v>
       </c>
@@ -31749,7 +31749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="n">
         <v>952</v>
       </c>
@@ -31782,7 +31782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="n">
         <v>953</v>
       </c>
@@ -31815,7 +31815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="n">
         <v>954</v>
       </c>
@@ -31848,7 +31848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="n">
         <v>955</v>
       </c>
@@ -31881,7 +31881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="n">
         <v>956</v>
       </c>
@@ -31914,7 +31914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="n">
         <v>957</v>
       </c>
@@ -31947,7 +31947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="n">
         <v>958</v>
       </c>
@@ -31980,7 +31980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="n">
         <v>959</v>
       </c>
@@ -32013,7 +32013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="n">
         <v>960</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="n">
         <v>977</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="n">
         <v>978</v>
       </c>
@@ -32640,7 +32640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="n">
         <v>979</v>
       </c>
@@ -32673,7 +32673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="n">
         <v>980</v>
       </c>
@@ -32706,7 +32706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="n">
         <v>981</v>
       </c>
@@ -32739,7 +32739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="n">
         <v>982</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="n">
         <v>983</v>
       </c>
@@ -32805,7 +32805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="n">
         <v>984</v>
       </c>
@@ -32838,7 +32838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="n">
         <v>985</v>
       </c>
@@ -32871,7 +32871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="n">
         <v>986</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="n">
         <v>987</v>
       </c>
@@ -32937,7 +32937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="n">
         <v>988</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="n">
         <v>989</v>
       </c>
@@ -33003,7 +33003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="n">
         <v>990</v>
       </c>
@@ -33036,7 +33036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="n">
         <v>991</v>
       </c>
@@ -33069,7 +33069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="n">
         <v>992</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1026" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1" t="n">
         <v>1025</v>
       </c>
@@ -34191,7 +34191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1027" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1" t="n">
         <v>1026</v>
       </c>
@@ -34224,7 +34224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1028" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1" t="n">
         <v>1027</v>
       </c>
@@ -34257,7 +34257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1029" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="1" t="n">
         <v>1028</v>
       </c>
@@ -34290,7 +34290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1030" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="n">
         <v>1029</v>
       </c>
@@ -34323,7 +34323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1031" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="n">
         <v>1030</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1032" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="n">
         <v>1031</v>
       </c>
@@ -34389,7 +34389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1033" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="n">
         <v>1032</v>
       </c>
@@ -34422,7 +34422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1034" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1" t="n">
         <v>1033</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1035" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="n">
         <v>1034</v>
       </c>
@@ -34488,7 +34488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1036" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="n">
         <v>1035</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1037" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="n">
         <v>1036</v>
       </c>
@@ -34554,7 +34554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1038" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="n">
         <v>1037</v>
       </c>
@@ -34587,7 +34587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1039" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1" t="n">
         <v>1038</v>
       </c>
@@ -34620,7 +34620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1040" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="1" t="n">
         <v>1039</v>
       </c>
@@ -34653,7 +34653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1041" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="n">
         <v>1040</v>
       </c>
@@ -35742,7 +35742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1074" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="n">
         <v>1073</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1075" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="1" t="n">
         <v>1074</v>
       </c>
@@ -35808,7 +35808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1076" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1" t="n">
         <v>1075</v>
       </c>
@@ -35841,7 +35841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1077" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="1" t="n">
         <v>1076</v>
       </c>
@@ -35874,7 +35874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1078" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="n">
         <v>1077</v>
       </c>
@@ -35907,7 +35907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1079" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="1" t="n">
         <v>1078</v>
       </c>
@@ -35940,7 +35940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1080" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="n">
         <v>1079</v>
       </c>
@@ -35973,7 +35973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1081" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="n">
         <v>1080</v>
       </c>
@@ -36006,7 +36006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1082" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="1" t="n">
         <v>1081</v>
       </c>
@@ -36039,7 +36039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1083" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="1" t="n">
         <v>1082</v>
       </c>
@@ -36072,7 +36072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1084" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="1" t="n">
         <v>1083</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1085" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1" t="n">
         <v>1084</v>
       </c>
@@ -36138,7 +36138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1086" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="1" t="n">
         <v>1085</v>
       </c>
@@ -36171,7 +36171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1087" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1" t="n">
         <v>1086</v>
       </c>
@@ -36204,7 +36204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1088" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="n">
         <v>1087</v>
       </c>
@@ -36237,7 +36237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1089" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="1" t="n">
         <v>1088</v>
       </c>
@@ -36270,7 +36270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1090" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="1" t="n">
         <v>1089</v>
       </c>
@@ -36303,7 +36303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1091" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="1" t="n">
         <v>1090</v>
       </c>
@@ -36336,7 +36336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1092" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="1" t="n">
         <v>1091</v>
       </c>
@@ -36369,7 +36369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1093" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="1" t="n">
         <v>1092</v>
       </c>
@@ -36402,7 +36402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1094" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="1" t="n">
         <v>1093</v>
       </c>
@@ -36435,7 +36435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1095" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="1" t="n">
         <v>1094</v>
       </c>
@@ -36468,7 +36468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1096" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="1" t="n">
         <v>1095</v>
       </c>
@@ -36501,7 +36501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1097" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="1" t="n">
         <v>1096</v>
       </c>
@@ -36534,7 +36534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1098" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="1" t="n">
         <v>1097</v>
       </c>
@@ -36567,7 +36567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1099" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="1" t="n">
         <v>1098</v>
       </c>
@@ -36600,7 +36600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1100" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="1" t="n">
         <v>1099</v>
       </c>
@@ -36633,7 +36633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1101" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="1" t="n">
         <v>1100</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1102" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="1" t="n">
         <v>1101</v>
       </c>
@@ -36699,7 +36699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1103" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="1" t="n">
         <v>1102</v>
       </c>
@@ -36732,7 +36732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1104" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="1" t="n">
         <v>1103</v>
       </c>
@@ -36765,7 +36765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1105" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="1" t="n">
         <v>1104</v>
       </c>
@@ -37326,7 +37326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1122" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="1" t="n">
         <v>1121</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1123" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="1" t="n">
         <v>1122</v>
       </c>
@@ -37392,7 +37392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1124" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="1" t="n">
         <v>1123</v>
       </c>
@@ -37425,7 +37425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1125" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="1" t="n">
         <v>1124</v>
       </c>
@@ -37458,7 +37458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1126" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="1" t="n">
         <v>1125</v>
       </c>
@@ -37491,7 +37491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1127" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="1" t="n">
         <v>1126</v>
       </c>
@@ -37524,7 +37524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1128" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="1" t="n">
         <v>1127</v>
       </c>
@@ -37557,7 +37557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1129" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="1" t="n">
         <v>1128</v>
       </c>
@@ -37590,7 +37590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1130" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="1" t="n">
         <v>1129</v>
       </c>
@@ -37623,7 +37623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1131" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="1" t="n">
         <v>1130</v>
       </c>
@@ -37656,7 +37656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1132" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="1" t="n">
         <v>1131</v>
       </c>
@@ -37689,7 +37689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1133" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="1" t="n">
         <v>1132</v>
       </c>
@@ -37722,7 +37722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1134" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="1" t="n">
         <v>1133</v>
       </c>
@@ -37755,7 +37755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1135" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="1" t="n">
         <v>1134</v>
       </c>
@@ -37788,7 +37788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1136" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="1" t="n">
         <v>1135</v>
       </c>
@@ -37821,7 +37821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1137" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="1" t="n">
         <v>1136</v>
       </c>
@@ -38910,7 +38910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1170" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="1" t="n">
         <v>1169</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1171" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="1" t="n">
         <v>1170</v>
       </c>
@@ -38976,7 +38976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1172" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="1" t="n">
         <v>1171</v>
       </c>
@@ -39009,7 +39009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1173" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="n">
         <v>1172</v>
       </c>
@@ -39042,7 +39042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1174" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="n">
         <v>1173</v>
       </c>
@@ -39075,7 +39075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1175" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="1" t="n">
         <v>1174</v>
       </c>
@@ -39108,7 +39108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1176" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="1" t="n">
         <v>1175</v>
       </c>
@@ -39141,7 +39141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1177" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="1" t="n">
         <v>1176</v>
       </c>
@@ -39174,7 +39174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1178" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="1" t="n">
         <v>1177</v>
       </c>
@@ -39207,7 +39207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1179" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="1" t="n">
         <v>1178</v>
       </c>
@@ -39240,7 +39240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1180" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="1" t="n">
         <v>1179</v>
       </c>
@@ -39273,7 +39273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1181" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="1" t="n">
         <v>1180</v>
       </c>
@@ -39306,7 +39306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1182" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="1" t="n">
         <v>1181</v>
       </c>
@@ -39339,7 +39339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1183" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="1" t="n">
         <v>1182</v>
       </c>
@@ -39372,7 +39372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1184" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="1" t="n">
         <v>1183</v>
       </c>
@@ -39405,7 +39405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1185" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="1" t="n">
         <v>1184</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1218" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="1" t="n">
         <v>1217</v>
       </c>
@@ -40527,7 +40527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1219" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="1" t="n">
         <v>1218</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1220" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="1" t="n">
         <v>1219</v>
       </c>
@@ -40593,7 +40593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1221" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="1" t="n">
         <v>1220</v>
       </c>
@@ -40626,7 +40626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1222" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="1" t="n">
         <v>1221</v>
       </c>
@@ -40659,7 +40659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1223" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="1" t="n">
         <v>1222</v>
       </c>
@@ -40692,7 +40692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1224" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="1" t="n">
         <v>1223</v>
       </c>
@@ -40725,7 +40725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1225" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="1" t="n">
         <v>1224</v>
       </c>
@@ -40758,7 +40758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1226" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="1" t="n">
         <v>1225</v>
       </c>
@@ -40791,7 +40791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1227" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="1" t="n">
         <v>1226</v>
       </c>
@@ -40824,7 +40824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1228" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="1" t="n">
         <v>1227</v>
       </c>
@@ -40857,7 +40857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1229" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="1" t="n">
         <v>1228</v>
       </c>
@@ -40890,7 +40890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1230" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="1" t="n">
         <v>1229</v>
       </c>
@@ -40923,7 +40923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1231" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="1" t="n">
         <v>1230</v>
       </c>
@@ -40956,7 +40956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1232" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="1" t="n">
         <v>1231</v>
       </c>
@@ -40989,7 +40989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1233" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="1" t="n">
         <v>1232</v>
       </c>
@@ -41022,7 +41022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1234" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="1" t="n">
         <v>1233</v>
       </c>
@@ -41055,7 +41055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1235" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="1" t="n">
         <v>1234</v>
       </c>
@@ -41088,7 +41088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1236" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="1" t="n">
         <v>1235</v>
       </c>
@@ -41121,7 +41121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1237" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="1" t="n">
         <v>1236</v>
       </c>
@@ -41154,7 +41154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1238" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="1" t="n">
         <v>1237</v>
       </c>
@@ -41187,7 +41187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1239" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="1" t="n">
         <v>1238</v>
       </c>
@@ -41220,7 +41220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1240" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="1" t="n">
         <v>1239</v>
       </c>
@@ -41253,7 +41253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1241" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="1" t="n">
         <v>1240</v>
       </c>
@@ -41286,7 +41286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1242" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="1" t="n">
         <v>1241</v>
       </c>
@@ -41319,7 +41319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1243" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="1" t="n">
         <v>1242</v>
       </c>
@@ -41352,7 +41352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1244" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="1" t="n">
         <v>1243</v>
       </c>
@@ -41385,7 +41385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1245" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="1" t="n">
         <v>1244</v>
       </c>
@@ -41418,7 +41418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1246" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="1" t="n">
         <v>1245</v>
       </c>
@@ -41451,7 +41451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1247" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="1" t="n">
         <v>1246</v>
       </c>
@@ -41484,7 +41484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1248" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="1" t="n">
         <v>1247</v>
       </c>
@@ -41517,7 +41517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1249" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="1" t="n">
         <v>1248</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1266" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="1" t="n">
         <v>1265</v>
       </c>
@@ -42111,7 +42111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1267" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="1" t="n">
         <v>1266</v>
       </c>
@@ -42144,7 +42144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1268" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="1" t="n">
         <v>1267</v>
       </c>
@@ -42177,7 +42177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1269" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="1" t="n">
         <v>1268</v>
       </c>
@@ -42210,7 +42210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1270" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="1" t="n">
         <v>1269</v>
       </c>
@@ -42243,7 +42243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1271" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="1" t="n">
         <v>1270</v>
       </c>
@@ -42276,7 +42276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1272" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="1" t="n">
         <v>1271</v>
       </c>
@@ -42309,7 +42309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1273" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="1" t="n">
         <v>1272</v>
       </c>
@@ -42342,7 +42342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1274" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="1" t="n">
         <v>1273</v>
       </c>
@@ -42375,7 +42375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1275" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="1" t="n">
         <v>1274</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1276" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1276" s="1" t="n">
         <v>1275</v>
       </c>
@@ -42441,7 +42441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1277" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1277" s="1" t="n">
         <v>1276</v>
       </c>
@@ -42474,7 +42474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1278" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="1" t="n">
         <v>1277</v>
       </c>
@@ -42507,7 +42507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1279" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1279" s="1" t="n">
         <v>1278</v>
       </c>
@@ -42540,7 +42540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1280" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1280" s="1" t="n">
         <v>1279</v>
       </c>
@@ -42573,7 +42573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1281" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="1" t="n">
         <v>1280</v>
       </c>
@@ -43662,7 +43662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1314" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1314" s="1" t="n">
         <v>1313</v>
       </c>
@@ -43695,7 +43695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1315" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1315" s="1" t="n">
         <v>1314</v>
       </c>
@@ -43728,7 +43728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1316" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1316" s="1" t="n">
         <v>1315</v>
       </c>
@@ -43761,7 +43761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1317" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1317" s="1" t="n">
         <v>1316</v>
       </c>
@@ -43794,7 +43794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1318" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="1" t="n">
         <v>1317</v>
       </c>
@@ -43827,7 +43827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1319" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1319" s="1" t="n">
         <v>1318</v>
       </c>
@@ -43860,7 +43860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1320" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1320" s="1" t="n">
         <v>1319</v>
       </c>
@@ -43893,7 +43893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1321" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1321" s="1" t="n">
         <v>1320</v>
       </c>
@@ -43926,7 +43926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1322" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1322" s="1" t="n">
         <v>1321</v>
       </c>
@@ -43959,7 +43959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1323" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="1" t="n">
         <v>1322</v>
       </c>
@@ -43992,7 +43992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1324" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="1" t="n">
         <v>1323</v>
       </c>
@@ -44025,7 +44025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1325" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1325" s="1" t="n">
         <v>1324</v>
       </c>
@@ -44058,7 +44058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1326" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1326" s="1" t="n">
         <v>1325</v>
       </c>
@@ -44091,7 +44091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1327" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1327" s="1" t="n">
         <v>1326</v>
       </c>
@@ -44124,7 +44124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1328" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1328" s="1" t="n">
         <v>1327</v>
       </c>
@@ -44157,7 +44157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1329" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="1" t="n">
         <v>1328</v>
       </c>
@@ -45246,7 +45246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1362" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="1" t="n">
         <v>1361</v>
       </c>
@@ -45279,7 +45279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1363" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1363" s="1" t="n">
         <v>1362</v>
       </c>
@@ -45312,7 +45312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1364" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1364" s="1" t="n">
         <v>1363</v>
       </c>
@@ -45345,7 +45345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1365" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1365" s="1" t="n">
         <v>1364</v>
       </c>
@@ -45378,7 +45378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1366" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="1" t="n">
         <v>1365</v>
       </c>
@@ -45411,7 +45411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1367" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1367" s="1" t="n">
         <v>1366</v>
       </c>
@@ -45444,7 +45444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1368" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1368" s="1" t="n">
         <v>1367</v>
       </c>
@@ -45477,7 +45477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1369" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1369" s="1" t="n">
         <v>1368</v>
       </c>
@@ -45510,7 +45510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1370" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1370" s="1" t="n">
         <v>1369</v>
       </c>
@@ -45543,7 +45543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1371" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1371" s="1" t="n">
         <v>1370</v>
       </c>
@@ -45576,7 +45576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1372" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1372" s="1" t="n">
         <v>1371</v>
       </c>
@@ -45609,7 +45609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1373" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1373" s="1" t="n">
         <v>1372</v>
       </c>
@@ -45642,7 +45642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1374" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1374" s="1" t="n">
         <v>1373</v>
       </c>
@@ -45675,7 +45675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1375" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1375" s="1" t="n">
         <v>1374</v>
       </c>
@@ -45708,7 +45708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1376" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1376" s="1" t="n">
         <v>1375</v>
       </c>
@@ -45741,7 +45741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1377" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1377" s="1" t="n">
         <v>1376</v>
       </c>
@@ -45774,7 +45774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1378" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1378" s="1" t="n">
         <v>1377</v>
       </c>
@@ -45807,7 +45807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1379" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1379" s="1" t="n">
         <v>1378</v>
       </c>
@@ -45840,7 +45840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1380" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1380" s="1" t="n">
         <v>1379</v>
       </c>
@@ -45873,7 +45873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1381" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1381" s="1" t="n">
         <v>1380</v>
       </c>
@@ -45906,7 +45906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1382" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1382" s="1" t="n">
         <v>1381</v>
       </c>
@@ -45939,7 +45939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1383" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="1" t="n">
         <v>1382</v>
       </c>
@@ -45972,7 +45972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1384" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1384" s="1" t="n">
         <v>1383</v>
       </c>
@@ -46005,7 +46005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1385" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1385" s="1" t="n">
         <v>1384</v>
       </c>
@@ -46038,7 +46038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1386" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1386" s="1" t="n">
         <v>1385</v>
       </c>
@@ -46071,7 +46071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1387" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1387" s="1" t="n">
         <v>1386</v>
       </c>
@@ -46104,7 +46104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1388" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1388" s="1" t="n">
         <v>1387</v>
       </c>
@@ -46137,7 +46137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1389" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1389" s="1" t="n">
         <v>1388</v>
       </c>
@@ -46170,7 +46170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1390" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1390" s="1" t="n">
         <v>1389</v>
       </c>
@@ -46203,7 +46203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1391" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1391" s="1" t="n">
         <v>1390</v>
       </c>
@@ -46236,7 +46236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1392" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1392" s="1" t="n">
         <v>1391</v>
       </c>
@@ -46269,7 +46269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1393" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1393" s="1" t="n">
         <v>1392</v>
       </c>
@@ -46830,7 +46830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1410" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1410" s="1" t="n">
         <v>1409</v>
       </c>
@@ -46863,7 +46863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1411" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1411" s="1" t="n">
         <v>1410</v>
       </c>
@@ -46896,7 +46896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1412" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1412" s="1" t="n">
         <v>1411</v>
       </c>
@@ -46929,7 +46929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1413" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1413" s="1" t="n">
         <v>1412</v>
       </c>
@@ -46962,7 +46962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1414" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1414" s="1" t="n">
         <v>1413</v>
       </c>
@@ -46995,7 +46995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1415" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1415" s="1" t="n">
         <v>1414</v>
       </c>
@@ -47028,7 +47028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1416" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1416" s="1" t="n">
         <v>1415</v>
       </c>
@@ -47061,7 +47061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1417" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1417" s="1" t="n">
         <v>1416</v>
       </c>
@@ -47094,7 +47094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1418" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1418" s="1" t="n">
         <v>1417</v>
       </c>
@@ -47127,7 +47127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1419" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1419" s="1" t="n">
         <v>1418</v>
       </c>
@@ -47160,7 +47160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1420" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1420" s="1" t="n">
         <v>1419</v>
       </c>
@@ -47193,7 +47193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1421" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1421" s="1" t="n">
         <v>1420</v>
       </c>
@@ -47226,7 +47226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1422" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1422" s="1" t="n">
         <v>1421</v>
       </c>
@@ -47259,7 +47259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1423" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1423" s="1" t="n">
         <v>1422</v>
       </c>
@@ -47292,7 +47292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1424" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1424" s="1" t="n">
         <v>1423</v>
       </c>
@@ -47325,7 +47325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1425" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1425" s="1" t="n">
         <v>1424</v>
       </c>
@@ -48414,7 +48414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1458" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1458" s="1" t="n">
         <v>1457</v>
       </c>
@@ -48447,7 +48447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1459" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1459" s="1" t="n">
         <v>1458</v>
       </c>
@@ -48480,7 +48480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1460" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1460" s="1" t="n">
         <v>1459</v>
       </c>
@@ -48513,7 +48513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1461" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1461" s="1" t="n">
         <v>1460</v>
       </c>
@@ -48546,7 +48546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1462" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1462" s="1" t="n">
         <v>1461</v>
       </c>
@@ -48579,7 +48579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1463" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1463" s="1" t="n">
         <v>1462</v>
       </c>
@@ -48612,7 +48612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1464" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1464" s="1" t="n">
         <v>1463</v>
       </c>
@@ -48645,7 +48645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1465" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1465" s="1" t="n">
         <v>1464</v>
       </c>
@@ -48678,7 +48678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1466" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1466" s="1" t="n">
         <v>1465</v>
       </c>
@@ -48711,7 +48711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1467" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1467" s="1" t="n">
         <v>1466</v>
       </c>
@@ -48744,7 +48744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1468" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1468" s="1" t="n">
         <v>1467</v>
       </c>
@@ -48777,7 +48777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1469" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1469" s="1" t="n">
         <v>1468</v>
       </c>
@@ -48810,7 +48810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1470" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1470" s="1" t="n">
         <v>1469</v>
       </c>
@@ -48843,7 +48843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1471" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1471" s="1" t="n">
         <v>1470</v>
       </c>
@@ -48876,7 +48876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1472" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1472" s="1" t="n">
         <v>1471</v>
       </c>
@@ -48909,7 +48909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1473" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1473" s="1" t="n">
         <v>1472</v>
       </c>
@@ -49998,7 +49998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1506" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1506" s="1" t="n">
         <v>1505</v>
       </c>
@@ -50031,7 +50031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1507" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1507" s="1" t="n">
         <v>1506</v>
       </c>
@@ -50064,7 +50064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1508" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1508" s="1" t="n">
         <v>1507</v>
       </c>
@@ -50097,7 +50097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1509" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1509" s="1" t="n">
         <v>1508</v>
       </c>
@@ -50130,7 +50130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1510" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1510" s="1" t="n">
         <v>1509</v>
       </c>
@@ -50163,7 +50163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1511" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1511" s="1" t="n">
         <v>1510</v>
       </c>
@@ -50196,7 +50196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1512" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1512" s="1" t="n">
         <v>1511</v>
       </c>
@@ -50229,7 +50229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1513" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1513" s="1" t="n">
         <v>1512</v>
       </c>
@@ -50262,7 +50262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1514" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1514" s="1" t="n">
         <v>1513</v>
       </c>
@@ -50295,7 +50295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1515" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1515" s="1" t="n">
         <v>1514</v>
       </c>
@@ -50328,7 +50328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1516" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1516" s="1" t="n">
         <v>1515</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1517" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1517" s="1" t="n">
         <v>1516</v>
       </c>
@@ -50394,7 +50394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1518" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1518" s="1" t="n">
         <v>1517</v>
       </c>
@@ -50427,7 +50427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1519" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1519" s="1" t="n">
         <v>1518</v>
       </c>
@@ -50460,7 +50460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1520" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1520" s="1" t="n">
         <v>1519</v>
       </c>
@@ -50493,7 +50493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1521" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1521" s="1" t="n">
         <v>1520</v>
       </c>
@@ -50526,7 +50526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1522" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1522" s="1" t="n">
         <v>1521</v>
       </c>
@@ -50559,7 +50559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1523" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1523" s="1" t="n">
         <v>1522</v>
       </c>
@@ -50592,7 +50592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1524" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1524" s="1" t="n">
         <v>1523</v>
       </c>
@@ -50625,7 +50625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1525" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1525" s="1" t="n">
         <v>1524</v>
       </c>
@@ -50658,7 +50658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1526" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1526" s="1" t="n">
         <v>1525</v>
       </c>
@@ -50691,7 +50691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1527" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1527" s="1" t="n">
         <v>1526</v>
       </c>
@@ -50724,7 +50724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1528" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1528" s="1" t="n">
         <v>1527</v>
       </c>
@@ -50757,7 +50757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1529" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1529" s="1" t="n">
         <v>1528</v>
       </c>
@@ -50790,7 +50790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1530" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1530" s="1" t="n">
         <v>1529</v>
       </c>
@@ -50823,7 +50823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1531" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1531" s="1" t="n">
         <v>1530</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1532" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1532" s="1" t="n">
         <v>1531</v>
       </c>
@@ -50889,7 +50889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1533" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1533" s="1" t="n">
         <v>1532</v>
       </c>
@@ -50922,7 +50922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1534" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1534" s="1" t="n">
         <v>1533</v>
       </c>
@@ -50955,7 +50955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1535" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1535" s="1" t="n">
         <v>1534</v>
       </c>
@@ -50988,7 +50988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1536" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1536" s="1" t="n">
         <v>1535</v>
       </c>
@@ -51021,7 +51021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1537" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1537" s="1" t="n">
         <v>1536</v>
       </c>
@@ -51582,7 +51582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1554" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1554" s="1" t="n">
         <v>1553</v>
       </c>
@@ -51615,7 +51615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1555" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1555" s="1" t="n">
         <v>1554</v>
       </c>
@@ -51648,7 +51648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1556" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1556" s="1" t="n">
         <v>1555</v>
       </c>
@@ -51681,7 +51681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1557" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1557" s="1" t="n">
         <v>1556</v>
       </c>
@@ -51714,7 +51714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1558" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1558" s="1" t="n">
         <v>1557</v>
       </c>
@@ -51747,7 +51747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1559" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="1" t="n">
         <v>1558</v>
       </c>
@@ -51780,7 +51780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1560" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1560" s="1" t="n">
         <v>1559</v>
       </c>
@@ -51813,7 +51813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1561" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1561" s="1" t="n">
         <v>1560</v>
       </c>
@@ -51846,7 +51846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1562" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="1" t="n">
         <v>1561</v>
       </c>
@@ -51879,7 +51879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1563" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="1" t="n">
         <v>1562</v>
       </c>
@@ -51912,7 +51912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1564" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="1" t="n">
         <v>1563</v>
       </c>
@@ -51945,7 +51945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1565" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="1" t="n">
         <v>1564</v>
       </c>
@@ -51978,7 +51978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1566" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="1" t="n">
         <v>1565</v>
       </c>
@@ -52011,7 +52011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1567" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1567" s="1" t="n">
         <v>1566</v>
       </c>
@@ -52044,7 +52044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1568" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1568" s="1" t="n">
         <v>1567</v>
       </c>
@@ -52077,7 +52077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1569" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1569" s="1" t="n">
         <v>1568</v>
       </c>
@@ -53166,7 +53166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1602" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1602" s="1" t="n">
         <v>1601</v>
       </c>
@@ -53199,7 +53199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1603" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1603" s="1" t="n">
         <v>1602</v>
       </c>
@@ -53232,7 +53232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1604" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1604" s="1" t="n">
         <v>1603</v>
       </c>
@@ -53265,7 +53265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1605" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1605" s="1" t="n">
         <v>1604</v>
       </c>
@@ -53298,7 +53298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1606" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1606" s="1" t="n">
         <v>1605</v>
       </c>
@@ -53331,7 +53331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1607" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1607" s="1" t="n">
         <v>1606</v>
       </c>
@@ -53364,7 +53364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1608" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1608" s="1" t="n">
         <v>1607</v>
       </c>
@@ -53397,7 +53397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1609" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1609" s="1" t="n">
         <v>1608</v>
       </c>
@@ -53430,7 +53430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1610" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1610" s="1" t="n">
         <v>1609</v>
       </c>
@@ -53463,7 +53463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1611" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1611" s="1" t="n">
         <v>1610</v>
       </c>
@@ -53496,7 +53496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1612" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1612" s="1" t="n">
         <v>1611</v>
       </c>
@@ -53529,7 +53529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1613" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1613" s="1" t="n">
         <v>1612</v>
       </c>
@@ -53562,7 +53562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1614" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1614" s="1" t="n">
         <v>1613</v>
       </c>
@@ -53595,7 +53595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1615" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1615" s="1" t="n">
         <v>1614</v>
       </c>
@@ -53628,7 +53628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1616" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1616" s="1" t="n">
         <v>1615</v>
       </c>
@@ -53661,7 +53661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1617" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1617" s="1" t="n">
         <v>1616</v>
       </c>
@@ -54750,7 +54750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1650" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1650" s="1" t="n">
         <v>1649</v>
       </c>
@@ -54783,7 +54783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1651" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1651" s="1" t="n">
         <v>1650</v>
       </c>
@@ -54816,7 +54816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1652" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1652" s="1" t="n">
         <v>1651</v>
       </c>
@@ -54849,7 +54849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1653" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1653" s="1" t="n">
         <v>1652</v>
       </c>
@@ -54882,7 +54882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1654" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1654" s="1" t="n">
         <v>1653</v>
       </c>
@@ -54915,7 +54915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1655" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1655" s="1" t="n">
         <v>1654</v>
       </c>
@@ -54948,7 +54948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1656" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1656" s="1" t="n">
         <v>1655</v>
       </c>
@@ -54981,7 +54981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1657" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1657" s="1" t="n">
         <v>1656</v>
       </c>
@@ -55014,7 +55014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1658" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1658" s="1" t="n">
         <v>1657</v>
       </c>
@@ -55047,7 +55047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1659" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1659" s="1" t="n">
         <v>1658</v>
       </c>
@@ -55080,7 +55080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1660" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1660" s="1" t="n">
         <v>1659</v>
       </c>
@@ -55113,7 +55113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1661" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1661" s="1" t="n">
         <v>1660</v>
       </c>
@@ -55146,7 +55146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1662" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1662" s="1" t="n">
         <v>1661</v>
       </c>
@@ -55179,7 +55179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1663" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1663" s="1" t="n">
         <v>1662</v>
       </c>
@@ -55212,7 +55212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1664" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1664" s="1" t="n">
         <v>1663</v>
       </c>
@@ -55245,7 +55245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1665" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1665" s="1" t="n">
         <v>1664</v>
       </c>
@@ -55278,7 +55278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1666" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1666" s="1" t="n">
         <v>1665</v>
       </c>
@@ -55311,7 +55311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1667" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1667" s="1" t="n">
         <v>1666</v>
       </c>
@@ -55344,7 +55344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1668" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1668" s="1" t="n">
         <v>1667</v>
       </c>
@@ -55377,7 +55377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1669" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1669" s="1" t="n">
         <v>1668</v>
       </c>
@@ -55410,7 +55410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1670" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1670" s="1" t="n">
         <v>1669</v>
       </c>
@@ -55443,7 +55443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1671" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1671" s="1" t="n">
         <v>1670</v>
       </c>
@@ -55476,7 +55476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1672" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1672" s="1" t="n">
         <v>1671</v>
       </c>
@@ -55509,7 +55509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1673" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1673" s="1" t="n">
         <v>1672</v>
       </c>
@@ -55542,7 +55542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1674" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1674" s="1" t="n">
         <v>1673</v>
       </c>
@@ -55575,7 +55575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1675" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1675" s="1" t="n">
         <v>1674</v>
       </c>
@@ -55608,7 +55608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1676" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1676" s="1" t="n">
         <v>1675</v>
       </c>
@@ -55641,7 +55641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1677" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1677" s="1" t="n">
         <v>1676</v>
       </c>
@@ -55674,7 +55674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1678" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1678" s="1" t="n">
         <v>1677</v>
       </c>
@@ -55707,7 +55707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1679" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1679" s="1" t="n">
         <v>1678</v>
       </c>
@@ -55740,7 +55740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1680" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1680" s="1" t="n">
         <v>1679</v>
       </c>
@@ -55773,7 +55773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1681" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1681" s="1" t="n">
         <v>1680</v>
       </c>
@@ -56334,7 +56334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1698" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1698" s="1" t="n">
         <v>1697</v>
       </c>
@@ -56367,7 +56367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1699" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1699" s="1" t="n">
         <v>1698</v>
       </c>
@@ -56400,7 +56400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1700" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1700" s="1" t="n">
         <v>1699</v>
       </c>
@@ -56433,7 +56433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1701" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1701" s="1" t="n">
         <v>1700</v>
       </c>
@@ -56466,7 +56466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1702" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1702" s="1" t="n">
         <v>1701</v>
       </c>
@@ -56499,7 +56499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1703" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1703" s="1" t="n">
         <v>1702</v>
       </c>
@@ -56532,7 +56532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1704" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1704" s="1" t="n">
         <v>1703</v>
       </c>
@@ -56565,7 +56565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1705" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1705" s="1" t="n">
         <v>1704</v>
       </c>
@@ -56598,7 +56598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1706" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1706" s="1" t="n">
         <v>1705</v>
       </c>
@@ -56631,7 +56631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1707" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1707" s="1" t="n">
         <v>1706</v>
       </c>
@@ -56664,7 +56664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1708" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1708" s="1" t="n">
         <v>1707</v>
       </c>
@@ -56697,7 +56697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1709" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1709" s="1" t="n">
         <v>1708</v>
       </c>
@@ -56730,7 +56730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1710" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1710" s="1" t="n">
         <v>1709</v>
       </c>
@@ -56763,7 +56763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1711" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1711" s="1" t="n">
         <v>1710</v>
       </c>
@@ -56796,7 +56796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1712" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1712" s="1" t="n">
         <v>1711</v>
       </c>
@@ -56829,7 +56829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1713" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1713" s="1" t="n">
         <v>1712</v>
       </c>
@@ -57918,7 +57918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1746" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1746" s="1" t="n">
         <v>1745</v>
       </c>
@@ -57951,7 +57951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1747" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1747" s="1" t="n">
         <v>1746</v>
       </c>
@@ -57984,7 +57984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1748" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1748" s="1" t="n">
         <v>1747</v>
       </c>
@@ -58017,7 +58017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1749" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1749" s="1" t="n">
         <v>1748</v>
       </c>
@@ -58050,7 +58050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1750" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1750" s="1" t="n">
         <v>1749</v>
       </c>
@@ -58083,7 +58083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1751" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1751" s="1" t="n">
         <v>1750</v>
       </c>
@@ -58116,7 +58116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1752" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1752" s="1" t="n">
         <v>1751</v>
       </c>
@@ -58149,7 +58149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1753" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1753" s="1" t="n">
         <v>1752</v>
       </c>
@@ -58182,7 +58182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1754" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1754" s="1" t="n">
         <v>1753</v>
       </c>
@@ -58215,7 +58215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1755" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1755" s="1" t="n">
         <v>1754</v>
       </c>
@@ -58248,7 +58248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1756" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1756" s="1" t="n">
         <v>1755</v>
       </c>
@@ -58281,7 +58281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1757" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1757" s="1" t="n">
         <v>1756</v>
       </c>
@@ -58314,7 +58314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1758" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1758" s="1" t="n">
         <v>1757</v>
       </c>
@@ -58347,7 +58347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1759" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1759" s="1" t="n">
         <v>1758</v>
       </c>
@@ -58380,7 +58380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1760" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1760" s="1" t="n">
         <v>1759</v>
       </c>
@@ -58413,7 +58413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1761" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1761" s="1" t="n">
         <v>1760</v>
       </c>
